--- a/人才再認證/個人申請及聯合審查/品力會活動認證申請表_空白.xlsx
+++ b/人才再認證/個人申請及聯合審查/品力會活動認證申請表_空白.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\品力會\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07CFF2D0-B3AA-4967-B0F1-91D7C4E021BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FB7E04-9A2E-4B1C-A855-834E1E90D4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,13 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>CSQQB004</t>
-  </si>
-  <si>
-    <t>https://github.com/CSQ-qualiability/home/blob/main/%E5%A7%94%E5%93%A1/%E5%96%AC%E5%87%A1/%E6%9C%AC%E5%AD%B8%E6%9C%83%E5%BB%BA%E7%BD%AE%E5%93%81%E8%B3%AA%E6%AA%A2%E9%A9%97%E5%B8%AB%E8%AA%8D%E8%AD%89%EF%BC%88CQI)%E4%BA%8B%E5%AE%9C%E6%8E%A2%E8%A8%8E1110515.pptx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1158,6 +1154,78 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1192,78 +1260,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1600,7 +1596,7 @@
   <dimension ref="B1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:E19"/>
+      <selection activeCell="B17" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1619,15 +1615,15 @@
     <row r="1" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
@@ -1637,7 +1633,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="12"/>
       <c r="I3" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -1645,12 +1641,12 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
+        <v>25</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
       <c r="I4" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -1661,36 +1657,36 @@
       <c r="F5" s="3"/>
       <c r="G5" s="14"/>
       <c r="I5" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="7" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="58"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="24"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="15" t="str">
         <f>IF(G16="","",IF(COUNTIF($G$16:$G$19,"通過")&gt;=2,"通過","未通過"))</f>
         <v/>
@@ -1699,52 +1695,52 @@
     </row>
     <row r="8" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="64"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="52"/>
       <c r="I8" s="26"/>
     </row>
     <row r="9" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="52"/>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="64"/>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="62" t="s">
+      <c r="C10" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="50"/>
+      <c r="C11" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-      <c r="I10" s="26"/>
-    </row>
-    <row r="11" spans="2:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
-      <c r="C11" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
       <c r="I11" s="27"/>
     </row>
     <row r="12" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1756,104 +1752,109 @@
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="2:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="49"/>
+    </row>
+    <row r="14" spans="2:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-    </row>
-    <row r="14" spans="2:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="51" t="s">
+      <c r="C14" s="40"/>
+      <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="41" t="s">
+      <c r="G14" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="54" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="15" spans="2:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="53"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="55" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="54"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="8"/>
       <c r="G16" s="19"/>
     </row>
     <row r="17" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="38" t="s">
-        <v>1</v>
-      </c>
+      <c r="B17" s="62"/>
       <c r="C17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="8"/>
       <c r="G17" s="19"/>
     </row>
     <row r="18" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="59"/>
       <c r="F18" s="8"/>
       <c r="G18" s="19"/>
     </row>
     <row r="19" spans="2:7" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="40"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+        <v>23</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="2:7" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
-      <c r="C22" s="33"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="57"/>
     </row>
     <row r="23" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="31"/>
-      <c r="C23" s="34"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="F4:G4"/>
@@ -1869,13 +1870,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B17:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G16:G18">
@@ -1897,10 +1891,9 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" display="https://github.com/CSQ-qualiability/home/blob/main/%E5%A7%94%E5%93%A1/%E5%96%AC%E5%87%A1/%E6%9C%AC%E5%AD%B8%E6%9C%83%E5%BB%BA%E7%BD%AE%E5%93%81%E8%B3%AA%E6%AA%A2%E9%A9%97%E5%B8%AB%E8%AA%8D%E8%AD%89%EF%BC%88CQI)%E4%BA%8B%E5%AE%9C%E6%8E%A2%E8%A8%8E1110515.pptx" xr:uid="{E1202E82-63F5-4230-ACD4-1794E14D7F76}"/>
-    <hyperlink ref="B21" r:id="rId2" xr:uid="{D801A895-2932-4E45-B4BA-09F4357F1BDD}"/>
+    <hyperlink ref="B21" r:id="rId1" xr:uid="{D801A895-2932-4E45-B4BA-09F4357F1BDD}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="98" orientation="portrait" r:id="rId3"/>
+  <pageSetup scale="98" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>